--- a/SmokeTestCompareAsia/src/testData/CGG_Objects.xlsx
+++ b/SmokeTestCompareAsia/src/testData/CGG_Objects.xlsx
@@ -181,9 +181,6 @@
     <t>txt_Message</t>
   </si>
   <si>
-    <t>button[text()='SEND MESSAGE']</t>
-  </si>
-  <si>
     <t>btn_SendMessage</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>textarea [@name='msg']</t>
+  </si>
+  <si>
+    <t>button[text()=SEND MESSAGE']</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1109,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -1124,7 +1124,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1133,13 +1133,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
